--- a/01-Important Reference/EXAM DATE SECOND SEMESTER 2018-2019 for non specific programmes.xlsx
+++ b/01-Important Reference/EXAM DATE SECOND SEMESTER 2018-2019 for non specific programmes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z013q47\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnenclave/2018HT12247/bits-sem02/01-Important Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A8BC9-15E4-674B-8C0D-370980A1E7A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17016" windowHeight="5880"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exam Dates" sheetId="1" r:id="rId1"/>
@@ -1578,7 +1579,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1811,6 +1812,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1846,6 +1864,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2021,24 +2056,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C295" sqref="C295"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="11"/>
+    <col min="1" max="1" width="9.1640625" style="11"/>
     <col min="2" max="2" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="11"/>
+    <col min="3" max="3" width="50.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>510</v>
       </c>
@@ -2061,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2107,7 +2142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2130,7 +2165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2153,7 +2188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2176,7 +2211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2199,7 +2234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2222,7 +2257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2245,7 +2280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2268,7 +2303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2291,7 +2326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2314,7 +2349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2337,7 +2372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -2360,7 +2395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -2406,7 +2441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -2429,7 +2464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -2452,7 +2487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -2475,7 +2510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -2498,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -2521,7 +2556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -2544,7 +2579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -2567,7 +2602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -2590,7 +2625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -2636,7 +2671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -2682,7 +2717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -2705,7 +2740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -2728,7 +2763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -2751,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -2774,7 +2809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -2797,7 +2832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -2820,7 +2855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -2843,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -2866,7 +2901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -2889,7 +2924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -2912,7 +2947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -2935,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -2958,7 +2993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -2981,7 +3016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -3004,7 +3039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -3027,7 +3062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -3050,7 +3085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -3073,7 +3108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -3096,7 +3131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -3119,7 +3154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -3142,7 +3177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -3165,7 +3200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -3188,7 +3223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -3211,7 +3246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -3234,7 +3269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -3257,7 +3292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -3280,7 +3315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -3303,7 +3338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -3326,7 +3361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -3372,7 +3407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -3395,7 +3430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -3418,7 +3453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -3441,7 +3476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -3464,7 +3499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -3487,7 +3522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -3510,7 +3545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -3533,7 +3568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -3556,7 +3591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -3579,7 +3614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -3602,7 +3637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -3625,7 +3660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -3648,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -3671,7 +3706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -3694,7 +3729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -3717,7 +3752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -3740,7 +3775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -3763,7 +3798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -3786,7 +3821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -3809,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -3832,7 +3867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -3855,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -3878,7 +3913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -3901,7 +3936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -3924,7 +3959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -3947,7 +3982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -3970,7 +4005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -3993,7 +4028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -4016,7 +4051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -4039,7 +4074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -4062,7 +4097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -4085,7 +4120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -4108,7 +4143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -4131,7 +4166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -4154,7 +4189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -4177,7 +4212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -4200,7 +4235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -4223,7 +4258,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -4246,7 +4281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -4269,7 +4304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -4292,7 +4327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -4315,7 +4350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -4338,7 +4373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -4361,7 +4396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>101</v>
       </c>
@@ -4384,7 +4419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>102</v>
       </c>
@@ -4407,7 +4442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -4430,7 +4465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>104</v>
       </c>
@@ -4453,7 +4488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>105</v>
       </c>
@@ -4476,7 +4511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>106</v>
       </c>
@@ -4499,7 +4534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>107</v>
       </c>
@@ -4522,7 +4557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>108</v>
       </c>
@@ -4545,7 +4580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -4568,7 +4603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>110</v>
       </c>
@@ -4591,7 +4626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>111</v>
       </c>
@@ -4614,7 +4649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>112</v>
       </c>
@@ -4637,7 +4672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>113</v>
       </c>
@@ -4660,7 +4695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>114</v>
       </c>
@@ -4683,7 +4718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>115</v>
       </c>
@@ -4706,7 +4741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>116</v>
       </c>
@@ -4729,7 +4764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>117</v>
       </c>
@@ -4752,7 +4787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>118</v>
       </c>
@@ -4775,7 +4810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>119</v>
       </c>
@@ -4798,7 +4833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>120</v>
       </c>
@@ -4821,7 +4856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>121</v>
       </c>
@@ -4844,7 +4879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>122</v>
       </c>
@@ -4867,7 +4902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>123</v>
       </c>
@@ -4890,7 +4925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>124</v>
       </c>
@@ -4913,7 +4948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -4936,7 +4971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>126</v>
       </c>
@@ -4959,7 +4994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -4982,7 +5017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>128</v>
       </c>
@@ -5005,7 +5040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>129</v>
       </c>
@@ -5028,7 +5063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>130</v>
       </c>
@@ -5051,7 +5086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>131</v>
       </c>
@@ -5074,7 +5109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>132</v>
       </c>
@@ -5097,7 +5132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>133</v>
       </c>
@@ -5120,7 +5155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>134</v>
       </c>
@@ -5143,7 +5178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -5166,7 +5201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>136</v>
       </c>
@@ -5189,7 +5224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>137</v>
       </c>
@@ -5212,7 +5247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>138</v>
       </c>
@@ -5235,7 +5270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>139</v>
       </c>
@@ -5258,7 +5293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>140</v>
       </c>
@@ -5281,7 +5316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>141</v>
       </c>
@@ -5304,7 +5339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>142</v>
       </c>
@@ -5327,7 +5362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>143</v>
       </c>
@@ -5350,7 +5385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>144</v>
       </c>
@@ -5373,7 +5408,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>145</v>
       </c>
@@ -5396,7 +5431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>146</v>
       </c>
@@ -5419,7 +5454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>147</v>
       </c>
@@ -5442,7 +5477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>148</v>
       </c>
@@ -5465,7 +5500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>149</v>
       </c>
@@ -5488,7 +5523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>150</v>
       </c>
@@ -5511,7 +5546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>151</v>
       </c>
@@ -5534,7 +5569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>152</v>
       </c>
@@ -5557,7 +5592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>153</v>
       </c>
@@ -5580,7 +5615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>154</v>
       </c>
@@ -5603,7 +5638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>155</v>
       </c>
@@ -5626,7 +5661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>156</v>
       </c>
@@ -5649,7 +5684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>157</v>
       </c>
@@ -5672,7 +5707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>158</v>
       </c>
@@ -5695,7 +5730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>159</v>
       </c>
@@ -5718,7 +5753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>160</v>
       </c>
@@ -5741,7 +5776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>161</v>
       </c>
@@ -5764,7 +5799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>162</v>
       </c>
@@ -5787,7 +5822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>163</v>
       </c>
@@ -5810,7 +5845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>164</v>
       </c>
@@ -5833,7 +5868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>165</v>
       </c>
@@ -5856,7 +5891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>166</v>
       </c>
@@ -5879,7 +5914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>167</v>
       </c>
@@ -5902,7 +5937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>168</v>
       </c>
@@ -5925,7 +5960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>169</v>
       </c>
@@ -5948,7 +5983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>170</v>
       </c>
@@ -5971,7 +6006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>171</v>
       </c>
@@ -5994,7 +6029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>172</v>
       </c>
@@ -6017,7 +6052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>173</v>
       </c>
@@ -6040,7 +6075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>174</v>
       </c>
@@ -6063,7 +6098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>175</v>
       </c>
@@ -6086,7 +6121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>176</v>
       </c>
@@ -6109,7 +6144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>177</v>
       </c>
@@ -6132,7 +6167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>178</v>
       </c>
@@ -6155,7 +6190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>179</v>
       </c>
@@ -6178,7 +6213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>180</v>
       </c>
@@ -6201,7 +6236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>181</v>
       </c>
@@ -6224,7 +6259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>182</v>
       </c>
@@ -6247,7 +6282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>183</v>
       </c>
@@ -6270,7 +6305,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>184</v>
       </c>
@@ -6293,7 +6328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>185</v>
       </c>
@@ -6316,7 +6351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>186</v>
       </c>
@@ -6339,7 +6374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>187</v>
       </c>
@@ -6362,7 +6397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>188</v>
       </c>
@@ -6385,7 +6420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>189</v>
       </c>
@@ -6408,7 +6443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>190</v>
       </c>
@@ -6431,7 +6466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>191</v>
       </c>
@@ -6454,7 +6489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>192</v>
       </c>
@@ -6477,7 +6512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>193</v>
       </c>
@@ -6500,7 +6535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>194</v>
       </c>
@@ -6523,7 +6558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>195</v>
       </c>
@@ -6546,7 +6581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>196</v>
       </c>
@@ -6569,7 +6604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>197</v>
       </c>
@@ -6592,7 +6627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>198</v>
       </c>
@@ -6615,7 +6650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>199</v>
       </c>
@@ -6638,7 +6673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>200</v>
       </c>
@@ -6661,7 +6696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>201</v>
       </c>
@@ -6684,7 +6719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>202</v>
       </c>
@@ -6707,7 +6742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>203</v>
       </c>
@@ -6730,7 +6765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>204</v>
       </c>
@@ -6753,7 +6788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>205</v>
       </c>
@@ -6776,7 +6811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>206</v>
       </c>
@@ -6799,7 +6834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>207</v>
       </c>
@@ -6822,7 +6857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>208</v>
       </c>
@@ -6845,7 +6880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>209</v>
       </c>
@@ -6868,7 +6903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>210</v>
       </c>
@@ -6891,7 +6926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>211</v>
       </c>
@@ -6914,7 +6949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>212</v>
       </c>
@@ -6937,7 +6972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>213</v>
       </c>
@@ -6960,7 +6995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>214</v>
       </c>
@@ -6983,7 +7018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>215</v>
       </c>
@@ -7006,7 +7041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>216</v>
       </c>
@@ -7029,7 +7064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>217</v>
       </c>
@@ -7052,7 +7087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>218</v>
       </c>
@@ -7075,7 +7110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>219</v>
       </c>
@@ -7098,7 +7133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>220</v>
       </c>
@@ -7121,7 +7156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>221</v>
       </c>
@@ -7144,7 +7179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>222</v>
       </c>
@@ -7167,7 +7202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>223</v>
       </c>
@@ -7190,7 +7225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>224</v>
       </c>
@@ -7213,7 +7248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="12">
         <v>225</v>
       </c>
@@ -7236,7 +7271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>226</v>
       </c>
@@ -7259,7 +7294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>227</v>
       </c>
@@ -7282,7 +7317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>228</v>
       </c>
@@ -7305,7 +7340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="12">
         <v>229</v>
       </c>
@@ -7328,7 +7363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>230</v>
       </c>
@@ -7351,7 +7386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>231</v>
       </c>
@@ -7374,7 +7409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>232</v>
       </c>
@@ -7397,7 +7432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>233</v>
       </c>
@@ -7420,7 +7455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>234</v>
       </c>
@@ -7443,7 +7478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="12">
         <v>235</v>
       </c>
@@ -7466,7 +7501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>236</v>
       </c>
@@ -7489,7 +7524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>237</v>
       </c>
@@ -7512,7 +7547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>238</v>
       </c>
@@ -7535,7 +7570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>239</v>
       </c>
@@ -7558,7 +7593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>240</v>
       </c>
@@ -7581,7 +7616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="12">
         <v>241</v>
       </c>
@@ -7604,7 +7639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>242</v>
       </c>
@@ -7627,7 +7662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>243</v>
       </c>
@@ -7650,7 +7685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>244</v>
       </c>
@@ -7673,7 +7708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>245</v>
       </c>
@@ -7696,7 +7731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>246</v>
       </c>
@@ -7719,7 +7754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>247</v>
       </c>
@@ -7742,7 +7777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>248</v>
       </c>
@@ -7765,7 +7800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="12">
         <v>249</v>
       </c>
@@ -7788,7 +7823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>250</v>
       </c>
@@ -7811,7 +7846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>251</v>
       </c>
@@ -7834,7 +7869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>252</v>
       </c>
@@ -7857,7 +7892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="12">
         <v>253</v>
       </c>
@@ -7880,7 +7915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>254</v>
       </c>
@@ -7903,7 +7938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="12">
         <v>255</v>
       </c>
@@ -7926,7 +7961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>256</v>
       </c>
@@ -7949,7 +7984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>257</v>
       </c>
@@ -7972,7 +8007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>258</v>
       </c>
@@ -7995,7 +8030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>259</v>
       </c>
@@ -8018,7 +8053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>260</v>
       </c>
@@ -8041,7 +8076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="12">
         <v>261</v>
       </c>
@@ -8064,7 +8099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>262</v>
       </c>
@@ -8087,7 +8122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="12">
         <v>263</v>
       </c>
@@ -8110,7 +8145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>264</v>
       </c>
@@ -8133,7 +8168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="12">
         <v>265</v>
       </c>
@@ -8156,7 +8191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>266</v>
       </c>
@@ -8179,7 +8214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>267</v>
       </c>
@@ -8202,7 +8237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>268</v>
       </c>
@@ -8225,7 +8260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>269</v>
       </c>
@@ -8248,7 +8283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>270</v>
       </c>
@@ -8271,7 +8306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>271</v>
       </c>
@@ -8294,7 +8329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>272</v>
       </c>
@@ -8317,7 +8352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="12">
         <v>273</v>
       </c>
@@ -8340,11 +8375,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>274</v>
       </c>
-      <c r="B275" s="19" t="s">
+      <c r="B275" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C275" s="14" t="s">
@@ -8363,7 +8398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>275</v>
       </c>
@@ -8386,7 +8421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="12">
         <v>276</v>
       </c>
@@ -8409,7 +8444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="12">
         <v>277</v>
       </c>
@@ -8432,7 +8467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="12">
         <v>278</v>
       </c>
@@ -8455,7 +8490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="12">
         <v>279</v>
       </c>
@@ -8478,7 +8513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="12">
         <v>280</v>
       </c>
@@ -8501,7 +8536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12">
         <v>281</v>
       </c>
@@ -8524,7 +8559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="12">
         <v>282</v>
       </c>
@@ -8547,7 +8582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="12">
         <v>283</v>
       </c>
@@ -8570,7 +8605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12">
         <v>284</v>
       </c>
@@ -8593,7 +8628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="12">
         <v>285</v>
       </c>
@@ -8616,7 +8651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="12">
         <v>286</v>
       </c>
@@ -8639,7 +8674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="12">
         <v>287</v>
       </c>
@@ -8662,7 +8697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12">
         <v>288</v>
       </c>
@@ -8685,7 +8720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="12">
         <v>289</v>
       </c>
@@ -8708,7 +8743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="12">
         <v>290</v>
       </c>
@@ -8731,7 +8766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="12">
         <v>291</v>
       </c>
